--- a/Asset Lists/Asset_List.xlsx
+++ b/Asset Lists/Asset_List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mack\Desktop\Gamelab_3\Asset Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinedine038\Desktop\Repository GL3\Gamelab_3\Asset Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Assetlist</t>
   </si>
@@ -51,6 +51,75 @@
   </si>
   <si>
     <t>Unit_Creep_Siege</t>
+  </si>
+  <si>
+    <t>Playercontroller</t>
+  </si>
+  <si>
+    <t>CameraController</t>
+  </si>
+  <si>
+    <t>CombatSystem</t>
+  </si>
+  <si>
+    <t>WeaponManager</t>
+  </si>
+  <si>
+    <t>LockOnSystem</t>
+  </si>
+  <si>
+    <t>ElementalEffects</t>
+  </si>
+  <si>
+    <t>Boss_1</t>
+  </si>
+  <si>
+    <t>LCreepMelee</t>
+  </si>
+  <si>
+    <t>LCreepRanged</t>
+  </si>
+  <si>
+    <t>LCreepSuper</t>
+  </si>
+  <si>
+    <t>JCreepMelee</t>
+  </si>
+  <si>
+    <t>JCreepRanged</t>
+  </si>
+  <si>
+    <t>SiegeCreep</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>Inhibitor</t>
+  </si>
+  <si>
+    <t>SpawnManager</t>
+  </si>
+  <si>
+    <t>HUD</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>LevelingSysteem</t>
+  </si>
+  <si>
+    <t>SkillManager</t>
+  </si>
+  <si>
+    <t>Playerstats</t>
   </si>
 </sst>
 </file>
@@ -376,25 +445,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -402,34 +471,137 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
